--- a/biology/Histoire de la zoologie et de la botanique/Pierre-Joseph_Amoreux/Pierre-Joseph_Amoreux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre-Joseph_Amoreux/Pierre-Joseph_Amoreux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Joseph Amoreux est un médecin et un naturaliste français, né en 1741 à Beaucaire et mort en 1824 à Montpellier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bibliothécaire à la Faculté de Médecine de Montpellier, il est l’auteur de nombreux ouvrages tant sur la médecine, l’agriculture, la botanique et d’autres sujets d’histoire naturelle. Il a été correspondant de la Société royale d’agriculture de Paris à partir de 1785.
 Ce médecin ayant fait diverses expériences pour reconnaître la valeur des eaux de Meynes, il fut amené à conclure dans un mémoire qu'il lut à l'Assemblée publique des sciences de Montpellier, le 8 décembre 1773, que ces eaux n'étaient point minérales et qu'elles ne différaient en rien de l'eau commune. Mais tout en leur refusant la propriété minérale, il ne prétendait point les bannir de l'usage de la médecine. Il estimait, au contraire, qu'étant froides, légères, pénétrantes, elles pouvaient être ordonnées avec succès dans certaines maladies. Amoreux s'appliquait aussi dans ce mémoire à détruire l'erreur où étaient tombés quelques écrivains en localisant des eaux minérales à Meynes, à Montfrin et à Tarascon.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lettre d’un médecin de Montpellier à un magistrat de la cour des Aides de la même ville et agriculteur, sur la médecine vétérinaire (Montpellier, 1771)
 Essai de bibliographie vétérinaire (ou seconde lettre, contenant la bibliothèque des auteurs vétérinaires) (1773)
